--- a/ТерВер/L1.xlsx
+++ b/ТерВер/L1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23365" windowHeight="10312"/>
+    <workbookView windowWidth="25971" windowHeight="12762"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>Исходные данные</t>
+  </si>
+  <si>
+    <t>ВАРИАНТ 16</t>
   </si>
   <si>
     <t>Кол-во интервалов</t>
@@ -113,11 +116,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??.00_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??.0_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -151,6 +156,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -158,9 +171,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,43 +193,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -234,8 +209,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,11 +224,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -269,14 +282,6 @@
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -301,43 +306,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,7 +324,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,13 +342,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,7 +360,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,13 +390,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,25 +450,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,19 +474,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,16 +556,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,16 +580,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,142 +627,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -767,7 +772,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -783,6 +788,9 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="41" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="22" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="2" xfId="41" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -793,6 +801,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="22" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="22" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -981,8 +995,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="10"/>
-        <c:overlap val="0"/>
+        <c:gapWidth val="12"/>
+        <c:overlap val="-48"/>
         <c:axId val="244109558"/>
         <c:axId val="426138858"/>
       </c:barChart>
@@ -1120,6 +1134,318 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0672791416083681"/>
+          <c:y val="0.0515394885821771"/>
+          <c:w val="0.85309592931622"/>
+          <c:h val="0.890911098347504"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd" cmpd="sng">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d contourW="28575"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$L$17:$L$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$K$17:$K$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2118200376"/>
+        <c:axId val="2118201032"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2118200376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="50"/>
+          <c:min val="-1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="ru-RU" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2118201032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="20"/>
+        <c:minorUnit val="10"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2118201032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="ru-RU" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2118200376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:minorUnit val="0.01"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="ru-RU"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:externalData r:id="rId1">
+    <c:autoUpdate val="0"/>
+  </c:externalData>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1160,6 +1486,12 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
+  <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="215">
   <cs:axisTitle>
@@ -1639,6 +1971,524 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="249">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="20" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="bg1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="38100">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" baseline="0"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="0" i="0" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1673,8 +2523,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8537575" y="157480"/>
-        <a:ext cx="4561840" cy="2815590"/>
+        <a:off x="8773795" y="157480"/>
+        <a:ext cx="4681855" cy="2872740"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1684,7 +2534,465 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>249555</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>172085</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="11332845" y="3552825"/>
+        <a:ext cx="7239635" cy="5763260"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.0671170380768556</cdr:x>
+      <cdr:y>0.942352036894696</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.331637129320933</cdr:x>
+      <cdr:y>0.942352036894696</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp>
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="2" name="Прямое соединение 1"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="485775" y="5449570"/>
+          <a:ext cx="1914525" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.331637129320933</cdr:x>
+      <cdr:y>0.923465466124959</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.363923495350061</cdr:x>
+      <cdr:y>0.923465466124959</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp>
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="3" name="Прямое соединение 2"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2400300" y="5340350"/>
+          <a:ext cx="233680" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.361028250570275</cdr:x>
+      <cdr:y>0.861095860327221</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.391823126864362</cdr:x>
+      <cdr:y>0.861095860327221</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp>
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="4" name="Прямое соединение 3"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2613025" y="4979670"/>
+          <a:ext cx="222885" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.392174065625548</cdr:x>
+      <cdr:y>0.709124849017239</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.423319880680821</cdr:x>
+      <cdr:y>0.709124849017239</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp>
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="5" name="Прямое соединение 4"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2838450" y="4100830"/>
+          <a:ext cx="225425" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.422267064397263</cdr:x>
+      <cdr:y>0.55891072801142</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.453061940691349</cdr:x>
+      <cdr:y>0.55891072801142</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp>
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="6" name="Прямое соединение 5"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3056255" y="3232150"/>
+          <a:ext cx="222885" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.452360063168977</cdr:x>
+      <cdr:y>0.45152080816954</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.48350587822425</cdr:x>
+      <cdr:y>0.45152080816954</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp>
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="7" name="Прямое соединение 6"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3274060" y="2611120"/>
+          <a:ext cx="225425" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.482014388489209</cdr:x>
+      <cdr:y>0.237619413637861</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.513598876995964</cdr:x>
+      <cdr:y>0.237619413637861</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp>
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="8" name="Прямое соединение 7"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3488690" y="1374140"/>
+          <a:ext cx="228600" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.513598876995964</cdr:x>
+      <cdr:y>0.103546722301526</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.543340937006492</cdr:x>
+      <cdr:y>0.103546722301526</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp>
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="9" name="Прямое соединение 8"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3717290" y="598805"/>
+          <a:ext cx="215265" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.541831270301115</cdr:x>
+      <cdr:y>0.0502423975319524</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.918795540338864</cdr:x>
+      <cdr:y>0.0502423975319524</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp>
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="10" name="Прямое соединение 9"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3919220" y="289560"/>
+          <a:ext cx="2726690" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1945,22 +3253,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08333333333333" defaultRowHeight="14.7"/>
+  <sheetFormatPr defaultColWidth="9.08108108108108" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="5" width="12.8611111111111"/>
-    <col min="6" max="6" width="14.0092592592593"/>
-    <col min="7" max="9" width="12.8611111111111"/>
+    <col min="4" max="5" width="12.8648648648649"/>
+    <col min="6" max="6" width="14.009009009009"/>
+    <col min="7" max="9" width="12.8648648648649"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -2285,10 +3596,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <f>CEILING(1+LOG(COUNT(2:11),2),1)</f>
@@ -2297,21 +3608,21 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13">
         <f>MIN(A2:J11)</f>
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13">
         <f>MAX(A2:J11)</f>
         <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F13">
         <f>D13-B13</f>
@@ -2320,7 +3631,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14">
         <f>CEILING(F13/D12,0.1)</f>
@@ -2329,33 +3640,33 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:13">
       <c r="A17" s="2">
         <f>B13</f>
         <v>14</v>
@@ -2381,14 +3692,24 @@
         <v>0.012</v>
       </c>
       <c r="G17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="6">
+        <v>16</v>
+      </c>
+      <c r="H17" s="7">
         <f>SUMPRODUCT(C17:C24,D17:D24)/D25</f>
         <v>21.956</v>
       </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>-1</v>
+      </c>
+      <c r="M17">
+        <f>C17</f>
+        <v>14.9</v>
+      </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:13">
       <c r="A18" s="2">
         <f t="shared" ref="A18:A24" si="0">B17</f>
         <v>15.8</v>
@@ -2414,10 +3735,22 @@
         <v>0.039</v>
       </c>
       <c r="G18" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="K18">
+        <f>E17</f>
+        <v>0.02</v>
+      </c>
+      <c r="L18">
+        <f>M17</f>
+        <v>14.9</v>
+      </c>
+      <c r="M18">
+        <f t="shared" ref="M18:M25" si="6">C18</f>
+        <v>16.7</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:13">
       <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>17.6</v>
@@ -2443,14 +3776,26 @@
         <v>0.095</v>
       </c>
       <c r="G19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="6">
+        <v>18</v>
+      </c>
+      <c r="H19" s="7">
         <f>SUMPRODUCT(C17:C24,C17:C24,D17:D24)/D25-H17*H17</f>
-        <v>10.282464</v>
+        <v>10.2824639999999</v>
+      </c>
+      <c r="K19">
+        <f>K18+E18</f>
+        <v>0.09</v>
+      </c>
+      <c r="L19">
+        <f t="shared" ref="L19:L25" si="7">M18</f>
+        <v>16.7</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="6"/>
+        <v>18.5</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:13">
       <c r="A20" s="2">
         <f t="shared" si="0"/>
         <v>19.4</v>
@@ -2476,14 +3821,26 @@
         <v>0.095</v>
       </c>
       <c r="G20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="6">
+        <v>19</v>
+      </c>
+      <c r="H20" s="7">
         <f>(D25/(D25-1)*H19)</f>
-        <v>10.3863272727273</v>
+        <v>10.3863272727272</v>
+      </c>
+      <c r="K20">
+        <f t="shared" ref="K20:K31" si="8">K19+E19</f>
+        <v>0.26</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="7"/>
+        <v>18.5</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="6"/>
+        <v>20.3</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:13">
       <c r="A21" s="2">
         <f t="shared" si="0"/>
         <v>21.2</v>
@@ -2509,14 +3866,26 @@
         <v>0.067</v>
       </c>
       <c r="G21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="6">
+        <v>20</v>
+      </c>
+      <c r="H21" s="7">
         <f>SQRT(H20)</f>
-        <v>3.22278253574877</v>
+        <v>3.22278253574876</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="8"/>
+        <v>0.43</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="7"/>
+        <v>20.3</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="6"/>
+        <v>22.1</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:13">
       <c r="A22" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2541,8 +3910,20 @@
         <f t="shared" si="5"/>
         <v>0.134</v>
       </c>
+      <c r="K22">
+        <f t="shared" si="8"/>
+        <v>0.55</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="7"/>
+        <v>22.1</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="6"/>
+        <v>23.9</v>
+      </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:13">
       <c r="A23" s="2">
         <f t="shared" si="0"/>
         <v>24.8</v>
@@ -2567,8 +3948,20 @@
         <f t="shared" si="5"/>
         <v>0.084</v>
       </c>
+      <c r="K23">
+        <f t="shared" si="8"/>
+        <v>0.79</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="7"/>
+        <v>23.9</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="6"/>
+        <v>25.7</v>
+      </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:13">
       <c r="A24" s="2">
         <f t="shared" si="0"/>
         <v>26.6</v>
@@ -2593,45 +3986,68 @@
         <f t="shared" si="5"/>
         <v>0.034</v>
       </c>
+      <c r="K24">
+        <f t="shared" si="8"/>
+        <v>0.94</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="7"/>
+        <v>25.7</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="6"/>
+        <v>27.5</v>
+      </c>
     </row>
-    <row r="25" spans="4:4">
+    <row r="25" spans="4:13">
       <c r="D25">
         <f>COUNT(2:11)</f>
         <v>100</v>
       </c>
+      <c r="K25">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="7"/>
+        <v>27.5</v>
+      </c>
+      <c r="M25">
+        <v>30</v>
+      </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2643,32 +4059,32 @@
         <v>17.6</v>
       </c>
       <c r="C28" s="4">
-        <f t="shared" ref="C28:C34" si="6">COUNTIFS($A$2:$J$11,"&gt;="&amp;A28,$A$2:$J$11,"&lt;"&amp;B28)</f>
+        <f t="shared" ref="C28:C34" si="9">COUNTIFS($A$2:$J$11,"&gt;="&amp;A28,$A$2:$J$11,"&lt;"&amp;B28)</f>
         <v>9</v>
       </c>
-      <c r="D28" s="3">
-        <f t="shared" ref="D28:D33" si="7">NORMDIST(B28,$H$17,$H$21,1)-NORMDIST(A28,$H$17,$H$21,1)</f>
-        <v>0.0882473288039045</v>
+      <c r="D28" s="5">
+        <f t="shared" ref="D28:D33" si="10">NORMDIST(B28,$H$17,$H$21,1)-NORMDIST(A28,$H$17,$H$21,1)</f>
+        <v>0.0882473288039037</v>
       </c>
       <c r="E28" s="3">
-        <f t="shared" ref="E28:E34" si="8">$C$35*D28</f>
-        <v>8.82473288039045</v>
+        <f t="shared" ref="E28:E34" si="11">$C$35*D28</f>
+        <v>8.82473288039037</v>
       </c>
       <c r="F28" s="3">
-        <f t="shared" ref="F28:F34" si="9">C28-E28</f>
-        <v>0.175267119609552</v>
+        <f t="shared" ref="F28:F34" si="12">C28-E28</f>
+        <v>0.175267119609632</v>
       </c>
       <c r="G28" s="3">
-        <f t="shared" ref="G28:G34" si="10">F28*F28</f>
-        <v>0.0307185632162291</v>
+        <f t="shared" ref="G28:G34" si="13">F28*F28</f>
+        <v>0.0307185632162571</v>
       </c>
       <c r="H28" s="3">
-        <f t="shared" ref="H28:H34" si="11">G28/E28</f>
-        <v>0.00348096238521726</v>
+        <f t="shared" ref="H28:H34" si="14">G28/E28</f>
+        <v>0.00348096238522047</v>
       </c>
       <c r="I28" s="3">
-        <f t="shared" ref="I28:I34" si="12">C28*C28/E28</f>
-        <v>9.17874808199477</v>
+        <f t="shared" ref="I28:I34" si="15">C28*C28/E28</f>
+        <v>9.17874808199485</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2681,32 +4097,32 @@
         <v>19.4</v>
       </c>
       <c r="C29" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
       <c r="D29" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.125611442948245</v>
       </c>
       <c r="E29" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>12.5611442948245</v>
       </c>
       <c r="F29" s="3">
-        <f t="shared" si="9"/>
-        <v>4.4388557051755</v>
+        <f t="shared" si="12"/>
+        <v>4.43885570517548</v>
       </c>
       <c r="G29" s="3">
-        <f t="shared" si="10"/>
-        <v>19.7034399713691</v>
+        <f t="shared" si="13"/>
+        <v>19.7034399713689</v>
       </c>
       <c r="H29" s="3">
-        <f t="shared" si="11"/>
-        <v>1.56860231113557</v>
+        <f t="shared" si="14"/>
+        <v>1.56860231113555</v>
       </c>
       <c r="I29" s="3">
-        <f t="shared" si="12"/>
-        <v>23.0074580163111</v>
+        <f t="shared" si="15"/>
+        <v>23.007458016311</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2719,32 +4135,32 @@
         <v>21.2</v>
       </c>
       <c r="C30" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
       <c r="D30" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.193408634722931</v>
       </c>
       <c r="E30" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>19.3408634722931</v>
       </c>
       <c r="F30" s="3">
-        <f t="shared" si="9"/>
-        <v>-2.34086347229306</v>
+        <f t="shared" si="12"/>
+        <v>-2.3408634722931</v>
       </c>
       <c r="G30" s="3">
-        <f t="shared" si="10"/>
-        <v>5.47964179591592</v>
+        <f t="shared" si="13"/>
+        <v>5.4796417959161</v>
       </c>
       <c r="H30" s="3">
-        <f t="shared" si="11"/>
-        <v>0.283319398007531</v>
+        <f t="shared" si="14"/>
+        <v>0.28331939800754</v>
       </c>
       <c r="I30" s="3">
-        <f t="shared" si="12"/>
-        <v>14.9424559257145</v>
+        <f t="shared" si="15"/>
+        <v>14.9424559257144</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2757,32 +4173,32 @@
         <v>23</v>
       </c>
       <c r="C31" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="D31" s="3">
-        <f t="shared" si="7"/>
-        <v>0.219742252644083</v>
+        <f t="shared" si="10"/>
+        <v>0.219742252644084</v>
       </c>
       <c r="E31" s="3">
-        <f t="shared" si="8"/>
-        <v>21.9742252644083</v>
+        <f t="shared" si="11"/>
+        <v>21.9742252644084</v>
       </c>
       <c r="F31" s="3">
-        <f t="shared" si="9"/>
-        <v>-9.97422526440831</v>
+        <f t="shared" si="12"/>
+        <v>-9.97422526440836</v>
       </c>
       <c r="G31" s="3">
-        <f t="shared" si="10"/>
-        <v>99.485169625161</v>
+        <f t="shared" si="13"/>
+        <v>99.4851696251621</v>
       </c>
       <c r="H31" s="3">
-        <f t="shared" si="11"/>
-        <v>4.52735732104728</v>
+        <f t="shared" si="14"/>
+        <v>4.52735732104732</v>
       </c>
       <c r="I31" s="3">
-        <f t="shared" si="12"/>
-        <v>6.55313205663897</v>
+        <f t="shared" si="15"/>
+        <v>6.55313205663895</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2795,31 +4211,31 @@
         <v>24.8</v>
       </c>
       <c r="C32" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
       <c r="D32" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.184228246103765</v>
       </c>
       <c r="E32" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>18.4228246103765</v>
       </c>
       <c r="F32" s="3">
-        <f t="shared" si="9"/>
-        <v>5.57717538962353</v>
+        <f t="shared" si="12"/>
+        <v>5.5771753896235</v>
       </c>
       <c r="G32" s="3">
-        <f t="shared" si="10"/>
-        <v>31.1048853266224</v>
+        <f t="shared" si="13"/>
+        <v>31.1048853266221</v>
       </c>
       <c r="H32" s="3">
-        <f t="shared" si="11"/>
-        <v>1.68838850634788</v>
+        <f t="shared" si="14"/>
+        <v>1.68838850634785</v>
       </c>
       <c r="I32" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>31.2655638959714</v>
       </c>
     </row>
@@ -2831,77 +4247,77 @@
       <c r="B33" s="3">
         <v>26.6</v>
       </c>
-      <c r="C33" s="5">
-        <f t="shared" si="6"/>
+      <c r="C33" s="6">
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="D33" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.113968454498307</v>
       </c>
       <c r="E33" s="3">
-        <f t="shared" si="8"/>
-        <v>11.3968454498307</v>
+        <f t="shared" si="11"/>
+        <v>11.3968454498306</v>
       </c>
       <c r="F33" s="3">
-        <f t="shared" si="9"/>
-        <v>3.60315455016933</v>
+        <f t="shared" si="12"/>
+        <v>3.60315455016935</v>
       </c>
       <c r="G33" s="3">
-        <f t="shared" si="10"/>
-        <v>12.9827227124059</v>
+        <f t="shared" si="13"/>
+        <v>12.9827227124061</v>
       </c>
       <c r="H33" s="3">
-        <f t="shared" si="11"/>
-        <v>1.13915054560987</v>
+        <f t="shared" si="14"/>
+        <v>1.13915054560988</v>
       </c>
       <c r="I33" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>19.7423050957792</v>
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="6">
+      <c r="A34" s="7">
         <v>26.6</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="8">
         <v>9.99999999999999e+26</v>
       </c>
-      <c r="C34" s="5">
-        <f t="shared" si="6"/>
+      <c r="C34" s="6">
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="D34" s="3">
         <f>1-NORMDIST(A34,$H$17,$H$21,1)</f>
-        <v>0.0747936402787654</v>
+        <v>0.074793640278765</v>
       </c>
       <c r="E34" s="3">
-        <f t="shared" si="8"/>
-        <v>7.47936402787654</v>
+        <f t="shared" si="11"/>
+        <v>7.4793640278765</v>
       </c>
       <c r="F34" s="3">
-        <f t="shared" si="9"/>
-        <v>-1.47936402787654</v>
+        <f t="shared" si="12"/>
+        <v>-1.4793640278765</v>
       </c>
       <c r="G34" s="3">
-        <f t="shared" si="10"/>
-        <v>2.18851792697511</v>
+        <f t="shared" si="13"/>
+        <v>2.18851792697498</v>
       </c>
       <c r="H34" s="3">
-        <f t="shared" si="11"/>
-        <v>0.292607488927966</v>
+        <f t="shared" si="14"/>
+        <v>0.29260748892795</v>
       </c>
       <c r="I34" s="3">
-        <f t="shared" si="12"/>
-        <v>4.81324346105142</v>
+        <f t="shared" si="15"/>
+        <v>4.81324346105145</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>27</v>
-      </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="8">
+        <v>28</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="9">
         <f>SUM(C28:C34)</f>
         <v>100</v>
       </c>
@@ -2914,29 +4330,29 @@
         <v>100</v>
       </c>
       <c r="G35" t="s">
-        <v>28</v>
-      </c>
-      <c r="H35" s="6">
+        <v>29</v>
+      </c>
+      <c r="H35" s="10">
         <f>SUM(H28:H34)</f>
-        <v>9.50290653346131</v>
-      </c>
-      <c r="I35" s="6">
+        <v>9.50290653346132</v>
+      </c>
+      <c r="I35" s="7">
         <f>SUM(I28:I34)</f>
         <v>109.502906533461</v>
       </c>
     </row>
     <row r="36" spans="4:8">
       <c r="D36" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E36">
         <f>7-2-1</f>
         <v>4</v>
       </c>
       <c r="G36" t="s">
-        <v>30</v>
-      </c>
-      <c r="H36" s="6">
+        <v>31</v>
+      </c>
+      <c r="H36" s="11">
         <f>CHIINV(0.05,E36)</f>
         <v>9.48772903678116</v>
       </c>
